--- a/src/main/resources/output/ReportForThaiFishPrawnCrab.xlsx
+++ b/src/main/resources/output/ReportForThaiFishPrawnCrab.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -242,56 +242,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44815.0</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>0911SA1</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Qualified</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.41771126209506737</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0.1616729088639201</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.15667915106117353</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.16853932584269662</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.1641697877652934</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0.17322097378277154</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0.17571785268414483</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0.08660732801071158</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.5262172284644194</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>0.4737827715355805</v>
-      </c>
-      <c r="DK3" s="3" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
